--- a/analytics_aisd.xlsx
+++ b/analytics_aisd.xlsx
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -247,13 +247,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -268,6 +290,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2987,10 +3011,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$101:$A$112</c:f>
+              <c:f>Лист1!$A$101:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3026,16 +3050,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$101:$B$112</c:f>
+              <c:f>Лист1!$B$101:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>30624</c:v>
                 </c:pt>
@@ -3071,6 +3098,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2394912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5102562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,10 +3140,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$101:$A$112</c:f>
+              <c:f>Лист1!$A$101:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3149,16 +3179,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$101:$C$112</c:f>
+              <c:f>Лист1!$C$101:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>23670</c:v>
                 </c:pt>
@@ -3194,6 +3227,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1898139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4054030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,10 +3541,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$117:$A$128</c:f>
+              <c:f>Лист1!$A$117:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3544,16 +3580,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$117:$B$128</c:f>
+              <c:f>Лист1!$B$117:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>26448</c:v>
                 </c:pt>
@@ -3589,6 +3628,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2171676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4642302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,10 +3670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$117:$A$128</c:f>
+              <c:f>Лист1!$A$117:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3667,16 +3709,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$117:$C$128</c:f>
+              <c:f>Лист1!$C$117:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>19655</c:v>
                 </c:pt>
@@ -3712,6 +3757,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1688521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3622243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,6 +4007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4022,10 +4071,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$133:$A$144</c:f>
+              <c:f>Лист1!$A$133:$A$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4061,16 +4110,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$133:$B$144</c:f>
+              <c:f>Лист1!$B$133:$B$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>28743</c:v>
                 </c:pt>
@@ -4106,6 +4158,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2287393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4874783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,10 +4200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$133:$A$144</c:f>
+              <c:f>Лист1!$A$133:$A$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4184,16 +4239,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$133:$C$144</c:f>
+              <c:f>Лист1!$C$133:$C$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>21764</c:v>
                 </c:pt>
@@ -4229,6 +4287,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1793995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3837966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,6 +4430,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10511,10 +10573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C144"/>
+  <dimension ref="A2:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11560,6 +11622,17 @@
         <v>1898139</v>
       </c>
     </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="14">
+        <v>100000</v>
+      </c>
+      <c r="B113" s="15">
+        <v>5102562</v>
+      </c>
+      <c r="C113" s="15">
+        <v>4054030</v>
+      </c>
+    </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
@@ -11708,6 +11781,17 @@
         <v>1688521</v>
       </c>
     </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="14">
+        <v>100000</v>
+      </c>
+      <c r="B129" s="15">
+        <v>4642302</v>
+      </c>
+      <c r="C129" s="15">
+        <v>3622243</v>
+      </c>
+    </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
@@ -11854,6 +11938,17 @@
       </c>
       <c r="C144" s="2">
         <v>1793995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="14">
+        <v>100000</v>
+      </c>
+      <c r="B145" s="15">
+        <v>4874783</v>
+      </c>
+      <c r="C145" s="15">
+        <v>3837966</v>
       </c>
     </row>
   </sheetData>
